--- a/ec2/project 1/data.xlsx
+++ b/ec2/project 1/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eco\term 3\master_term3\ec2\project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF3A09B4-CB32-4E48-A4DB-AA472E3E4807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3EF219-683E-4FFA-83F7-1268606DF2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D0E1F31-FDE8-4BF0-88A9-64FA0A5D8F90}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>povertypercentage</t>
-  </si>
-  <si>
-    <t>consumerpriceindex</t>
   </si>
   <si>
     <t>unemploymentpercentage</t>
@@ -416,26 +413,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF13A2-B150-4D1B-BA8D-F1644C2AF41A}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,11 +459,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -477,29 +470,26 @@
       <c r="C2">
         <v>1.5</v>
       </c>
-      <c r="D2">
-        <v>65.717691021222706</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>67.66</v>
       </c>
       <c r="F2">
-        <v>67.66</v>
+        <v>43.43</v>
       </c>
       <c r="G2">
-        <v>43.43</v>
+        <v>62.96</v>
       </c>
       <c r="H2">
-        <v>62.96</v>
+        <v>33888.99598320519</v>
       </c>
       <c r="I2">
-        <v>33888.99598320519</v>
-      </c>
-      <c r="J2">
         <v>3.8925800323486301</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -510,28 +500,25 @@
         <v>1.4</v>
       </c>
       <c r="D3">
-        <v>67.910971007977096</v>
+        <v>3.42</v>
       </c>
       <c r="E3">
-        <v>3.42</v>
+        <v>68.2</v>
       </c>
       <c r="F3">
-        <v>68.2</v>
+        <v>43.79</v>
       </c>
       <c r="G3">
-        <v>43.79</v>
+        <v>62.689</v>
       </c>
       <c r="H3">
-        <v>62.689</v>
+        <v>34707.07175559477</v>
       </c>
       <c r="I3">
-        <v>34707.07175559477</v>
-      </c>
-      <c r="J3">
         <v>3.9650499820709202</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -542,28 +529,25 @@
         <v>1.3</v>
       </c>
       <c r="D4">
-        <v>70.641567791971795</v>
+        <v>3.59</v>
       </c>
       <c r="E4">
-        <v>3.59</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="F4">
-        <v>69.180000000000007</v>
+        <v>44.99</v>
       </c>
       <c r="G4">
-        <v>44.99</v>
+        <v>62.417000000000002</v>
       </c>
       <c r="H4">
-        <v>62.417000000000002</v>
+        <v>35045.844789748553</v>
       </c>
       <c r="I4">
-        <v>35045.844789748553</v>
-      </c>
-      <c r="J4">
         <v>3.9651300907135001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1993</v>
       </c>
@@ -574,28 +558,25 @@
         <v>1.2</v>
       </c>
       <c r="D5">
-        <v>73.207117831008006</v>
+        <v>4.25</v>
       </c>
       <c r="E5">
-        <v>4.25</v>
+        <v>69.5</v>
       </c>
       <c r="F5">
-        <v>69.5</v>
+        <v>45.57</v>
       </c>
       <c r="G5">
-        <v>45.57</v>
+        <v>62.143999999999998</v>
       </c>
       <c r="H5">
-        <v>62.143999999999998</v>
+        <v>34941.143800089878</v>
       </c>
       <c r="I5">
-        <v>34941.143800089878</v>
-      </c>
-      <c r="J5">
         <v>4.47704982757568</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -606,28 +587,25 @@
         <v>0.7</v>
       </c>
       <c r="D6">
-        <v>75.369223706786798</v>
+        <v>3.54</v>
       </c>
       <c r="E6">
-        <v>3.54</v>
+        <v>70.88</v>
       </c>
       <c r="F6">
-        <v>70.88</v>
+        <v>47.96</v>
       </c>
       <c r="G6">
-        <v>47.96</v>
+        <v>61.87</v>
       </c>
       <c r="H6">
-        <v>61.87</v>
+        <v>35643.028199467801</v>
       </c>
       <c r="I6">
-        <v>35643.028199467801</v>
-      </c>
-      <c r="J6">
         <v>4.2994699478149396</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -638,28 +616,25 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>77.060031483308705</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E7">
-        <v>4.3499999999999996</v>
+        <v>71.55</v>
       </c>
       <c r="F7">
-        <v>71.55</v>
+        <v>48.81</v>
       </c>
       <c r="G7">
-        <v>48.81</v>
+        <v>61.595999999999997</v>
       </c>
       <c r="H7">
-        <v>61.595999999999997</v>
+        <v>36537.993518946714</v>
       </c>
       <c r="I7">
-        <v>36537.993518946714</v>
-      </c>
-      <c r="J7">
         <v>4.3318300247192401</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1996</v>
       </c>
@@ -670,28 +645,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8">
-        <v>78.494096443253895</v>
+        <v>5.28</v>
       </c>
       <c r="E8">
-        <v>5.28</v>
+        <v>71.069999999999993</v>
       </c>
       <c r="F8">
-        <v>71.069999999999993</v>
+        <v>48.34</v>
       </c>
       <c r="G8">
-        <v>48.34</v>
+        <v>61.32</v>
       </c>
       <c r="H8">
-        <v>61.32</v>
+        <v>37346.007471329955</v>
       </c>
       <c r="I8">
-        <v>37346.007471329955</v>
-      </c>
-      <c r="J8">
         <v>4.3200998306274396</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1997</v>
       </c>
@@ -702,28 +674,25 @@
         <v>0.7</v>
       </c>
       <c r="D9">
-        <v>79.5192125233051</v>
+        <v>5.15</v>
       </c>
       <c r="E9">
-        <v>5.15</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="F9">
-        <v>70.760000000000005</v>
+        <v>48.3</v>
       </c>
       <c r="G9">
-        <v>48.3</v>
+        <v>61.045000000000002</v>
       </c>
       <c r="H9">
-        <v>61.045000000000002</v>
+        <v>38084.702501734027</v>
       </c>
       <c r="I9">
-        <v>38084.702501734027</v>
-      </c>
-      <c r="J9">
         <v>4.3044900894165004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -734,28 +703,25 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>80.252751173891497</v>
+        <v>5.52</v>
       </c>
       <c r="E10">
-        <v>5.52</v>
+        <v>71.069999999999993</v>
       </c>
       <c r="F10">
-        <v>71.069999999999993</v>
+        <v>48.81</v>
       </c>
       <c r="G10">
-        <v>48.81</v>
+        <v>60.768000000000001</v>
       </c>
       <c r="H10">
-        <v>60.768000000000001</v>
+        <v>39405.415218124828</v>
       </c>
       <c r="I10">
-        <v>39405.415218124828</v>
-      </c>
-      <c r="J10">
         <v>4.2724199295043901</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -766,28 +732,25 @@
         <v>0.9</v>
       </c>
       <c r="D11">
-        <v>80.709384325022697</v>
+        <v>4.7</v>
       </c>
       <c r="E11">
-        <v>4.7</v>
+        <v>71.290000000000006</v>
       </c>
       <c r="F11">
-        <v>71.290000000000006</v>
+        <v>48.98</v>
       </c>
       <c r="G11">
-        <v>48.98</v>
+        <v>60.491</v>
       </c>
       <c r="H11">
-        <v>60.491</v>
+        <v>40727.484497712328</v>
       </c>
       <c r="I11">
-        <v>40727.484497712328</v>
-      </c>
-      <c r="J11">
         <v>4.2636299133300799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -798,28 +761,25 @@
         <v>0.2</v>
       </c>
       <c r="D12">
-        <v>82.601908697407396</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E12">
-        <v>4.6900000000000004</v>
+        <v>71.13</v>
       </c>
       <c r="F12">
-        <v>71.13</v>
+        <v>48.94</v>
       </c>
       <c r="G12">
-        <v>48.94</v>
+        <v>60.213000000000001</v>
       </c>
       <c r="H12">
-        <v>60.213000000000001</v>
+        <v>42001.210774577012</v>
       </c>
       <c r="I12">
-        <v>42001.210774577012</v>
-      </c>
-      <c r="J12">
         <v>4.22596979141235</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -830,28 +790,25 @@
         <v>0.8</v>
       </c>
       <c r="D13">
-        <v>84.790859916232407</v>
+        <v>4.01</v>
       </c>
       <c r="E13">
-        <v>4.01</v>
+        <v>70.55</v>
       </c>
       <c r="F13">
-        <v>70.55</v>
+        <v>48.78</v>
       </c>
       <c r="G13">
-        <v>48.78</v>
+        <v>59.933999999999997</v>
       </c>
       <c r="H13">
-        <v>59.933999999999997</v>
+        <v>42370.93025364256</v>
       </c>
       <c r="I13">
-        <v>42370.93025364256</v>
-      </c>
-      <c r="J13">
         <v>4.2419900894165004</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -862,28 +819,25 @@
         <v>0.7</v>
       </c>
       <c r="D14">
-        <v>86.325877928245703</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="E14">
-        <v>4.8499999999999996</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="F14">
-        <v>71.760000000000005</v>
+        <v>50.15</v>
       </c>
       <c r="G14">
-        <v>50.15</v>
+        <v>59.655000000000001</v>
       </c>
       <c r="H14">
-        <v>59.655000000000001</v>
+        <v>42859.329938052389</v>
       </c>
       <c r="I14">
-        <v>42859.329938052389</v>
-      </c>
-      <c r="J14">
         <v>4.3075499534606898</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -894,28 +848,25 @@
         <v>0.6</v>
       </c>
       <c r="D15">
-        <v>87.496071568298106</v>
+        <v>4.78</v>
       </c>
       <c r="E15">
-        <v>4.78</v>
+        <v>71.84</v>
       </c>
       <c r="F15">
-        <v>71.84</v>
+        <v>50.19</v>
       </c>
       <c r="G15">
-        <v>50.19</v>
+        <v>59.375</v>
       </c>
       <c r="H15">
-        <v>59.375</v>
+        <v>43052.602598004029</v>
       </c>
       <c r="I15">
-        <v>43052.602598004029</v>
-      </c>
-      <c r="J15">
         <v>4.4161901473998997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -926,28 +877,25 @@
         <v>0.3</v>
       </c>
       <c r="D16">
-        <v>89.2995460030087</v>
+        <v>5.83</v>
       </c>
       <c r="E16">
-        <v>5.83</v>
+        <v>69.67</v>
       </c>
       <c r="F16">
-        <v>69.67</v>
+        <v>49.36</v>
       </c>
       <c r="G16">
-        <v>49.36</v>
+        <v>59.094000000000001</v>
       </c>
       <c r="H16">
-        <v>59.094000000000001</v>
+        <v>43956.582903255214</v>
       </c>
       <c r="I16">
-        <v>43956.582903255214</v>
-      </c>
-      <c r="J16">
         <v>4.5304799079895002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -958,505 +906,22 @@
         <v>0.4</v>
       </c>
       <c r="D17">
-        <v>91.352665670750795</v>
+        <v>5.63</v>
       </c>
       <c r="E17">
-        <v>5.63</v>
+        <v>71.3</v>
       </c>
       <c r="F17">
-        <v>71.3</v>
+        <v>50.67</v>
       </c>
       <c r="G17">
-        <v>50.67</v>
+        <v>58.813000000000002</v>
       </c>
       <c r="H17">
-        <v>58.813000000000002</v>
+        <v>44637.856010972871</v>
       </c>
       <c r="I17">
-        <v>44637.856010972871</v>
-      </c>
-      <c r="J17">
         <v>4.6802601814270002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2006</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18">
-        <v>92.669558662660094</v>
-      </c>
-      <c r="E18">
-        <v>5.24</v>
-      </c>
-      <c r="F18">
-        <v>71.930000000000007</v>
-      </c>
-      <c r="G18">
-        <v>51.24</v>
-      </c>
-      <c r="H18">
-        <v>58.531999999999996</v>
-      </c>
-      <c r="I18">
-        <v>45951.73463654262</v>
-      </c>
-      <c r="J18">
-        <v>4.8576798439025897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2007</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.7</v>
-      </c>
-      <c r="D19">
-        <v>94.679149277412407</v>
-      </c>
-      <c r="E19">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="F19">
-        <v>73.05</v>
-      </c>
-      <c r="G19">
-        <v>52.12</v>
-      </c>
-      <c r="H19">
-        <v>58.249000000000002</v>
-      </c>
-      <c r="I19">
-        <v>47510.293785666297</v>
-      </c>
-      <c r="J19">
-        <v>5.2089400291442898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0.6</v>
-      </c>
-      <c r="D20">
-        <v>97.723983693311794</v>
-      </c>
-      <c r="E20">
-        <v>4.13</v>
-      </c>
-      <c r="F20">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="G20">
-        <v>52.68</v>
-      </c>
-      <c r="H20">
-        <v>57.966000000000001</v>
-      </c>
-      <c r="I20">
-        <v>48053.482356721492</v>
-      </c>
-      <c r="J20">
-        <v>5.4491400718689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2009</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0.6</v>
-      </c>
-      <c r="D21">
-        <v>98.218768849527706</v>
-      </c>
-      <c r="E21">
-        <v>5.3</v>
-      </c>
-      <c r="F21">
-        <v>74.17</v>
-      </c>
-      <c r="G21">
-        <v>53.37</v>
-      </c>
-      <c r="H21">
-        <v>57.683</v>
-      </c>
-      <c r="I21">
-        <v>46123.491103196509</v>
-      </c>
-      <c r="J21">
-        <v>5.6329798698425302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2010</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.7</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>4.82</v>
-      </c>
-      <c r="F22">
-        <v>74.42</v>
-      </c>
-      <c r="G22">
-        <v>53.51</v>
-      </c>
-      <c r="H22">
-        <v>57.399000000000001</v>
-      </c>
-      <c r="I22">
-        <v>46858.043273371695</v>
-      </c>
-      <c r="J22">
-        <v>5.7402901649475098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2011</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0.7</v>
-      </c>
-      <c r="D23">
-        <v>103.286579148754</v>
-      </c>
-      <c r="E23">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="F23">
-        <v>74.77</v>
-      </c>
-      <c r="G23">
-        <v>53.84</v>
-      </c>
-      <c r="H23">
-        <v>57.115000000000002</v>
-      </c>
-      <c r="I23">
-        <v>48065.31654118983</v>
-      </c>
-      <c r="J23">
-        <v>5.8093900680542001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2012</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0.6</v>
-      </c>
-      <c r="D24">
-        <v>105.85394846721501</v>
-      </c>
-      <c r="E24">
-        <v>4.87</v>
-      </c>
-      <c r="F24">
-        <v>75.319999999999993</v>
-      </c>
-      <c r="G24">
-        <v>54.34</v>
-      </c>
-      <c r="H24">
-        <v>57.146999999999998</v>
-      </c>
-      <c r="I24">
-        <v>48172.238115145228</v>
-      </c>
-      <c r="J24">
-        <v>5.8763399124145499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2013</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0.6</v>
-      </c>
-      <c r="D25">
-        <v>107.97119274761801</v>
-      </c>
-      <c r="E25">
-        <v>5.34</v>
-      </c>
-      <c r="F25">
-        <v>75.64</v>
-      </c>
-      <c r="G25">
-        <v>54.6</v>
-      </c>
-      <c r="H25">
-        <v>57.335999999999999</v>
-      </c>
-      <c r="I25">
-        <v>47901.36612963197</v>
-      </c>
-      <c r="J25">
-        <v>5.8848600387573198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2014</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0.7</v>
-      </c>
-      <c r="D26">
-        <v>109.70500693325999</v>
-      </c>
-      <c r="E26">
-        <v>5.62</v>
-      </c>
-      <c r="F26">
-        <v>75.42</v>
-      </c>
-      <c r="G26">
-        <v>54.56</v>
-      </c>
-      <c r="H26">
-        <v>57.526000000000003</v>
-      </c>
-      <c r="I26">
-        <v>47842.748908235342</v>
-      </c>
-      <c r="J26">
-        <v>5.9918098449706996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2015</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0.9</v>
-      </c>
-      <c r="D27">
-        <v>110.68858180236801</v>
-      </c>
-      <c r="E27">
-        <v>5.72</v>
-      </c>
-      <c r="F27">
-        <v>75.510000000000005</v>
-      </c>
-      <c r="G27">
-        <v>54.54</v>
-      </c>
-      <c r="H27">
-        <v>57.715000000000003</v>
-      </c>
-      <c r="I27">
-        <v>47789.385015438929</v>
-      </c>
-      <c r="J27">
-        <v>6.1438298225402797</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2016</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.6</v>
-      </c>
-      <c r="D28">
-        <v>111.675472068849</v>
-      </c>
-      <c r="E28">
-        <v>6.01</v>
-      </c>
-      <c r="F28">
-        <v>76.180000000000007</v>
-      </c>
-      <c r="G28">
-        <v>55.01</v>
-      </c>
-      <c r="H28">
-        <v>57.905000000000001</v>
-      </c>
-      <c r="I28">
-        <v>48215.890528721779</v>
-      </c>
-      <c r="J28">
-        <v>6.2387599945068404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2017</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.7</v>
-      </c>
-      <c r="D29">
-        <v>113.999739176771</v>
-      </c>
-      <c r="E29">
-        <v>5.5</v>
-      </c>
-      <c r="F29">
-        <v>76.33</v>
-      </c>
-      <c r="G29">
-        <v>55</v>
-      </c>
-      <c r="H29">
-        <v>58.094000000000001</v>
-      </c>
-      <c r="I29">
-        <v>49031.107028615203</v>
-      </c>
-      <c r="J29">
-        <v>6.2130298614501998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2018</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0.6</v>
-      </c>
-      <c r="D30">
-        <v>116.27788695282899</v>
-      </c>
-      <c r="E30">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="F30">
-        <v>76.63</v>
-      </c>
-      <c r="G30">
-        <v>55.05</v>
-      </c>
-      <c r="H30">
-        <v>58.296999999999997</v>
-      </c>
-      <c r="I30">
-        <v>50051.785912636711</v>
-      </c>
-      <c r="J30">
-        <v>6.2585401535034197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2019</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0.5</v>
-      </c>
-      <c r="D31">
-        <v>118.05798005624899</v>
-      </c>
-      <c r="E31">
-        <v>4.49</v>
-      </c>
-      <c r="F31">
-        <v>76.86</v>
-      </c>
-      <c r="G31">
-        <v>55.16</v>
-      </c>
-      <c r="H31">
-        <v>58.515000000000001</v>
-      </c>
-      <c r="I31">
-        <v>50536.664145998264</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2020</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0.4</v>
-      </c>
-      <c r="D32">
-        <v>119.689435836364</v>
-      </c>
-      <c r="E32">
-        <v>5.77</v>
-      </c>
-      <c r="F32">
-        <v>77</v>
-      </c>
-      <c r="G32">
-        <v>56</v>
-      </c>
-      <c r="H32">
-        <v>58.747999999999998</v>
-      </c>
-      <c r="I32">
-        <v>47008.710432967753</v>
-      </c>
-      <c r="J32" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
